--- a/Qualidade/L2/dados_excel.xlsx
+++ b/Qualidade/L2/dados_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\GitHub\Poli\Qualidade\L2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB38EFBC-D0CD-490D-81B3-CC432CCDBAC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D771ABF9-8DBD-433C-9E79-DFBB8BC6197F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Formulário 1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>i</t>
   </si>
@@ -82,16 +82,7 @@
     <t>Grupo</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Não Plano</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>Grande Abertura</t>
@@ -160,19 +151,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -185,29 +167,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,767 +479,767 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:F31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="6" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
-        <v>1</v>
-      </c>
-      <c r="B2" s="8">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5">
         <v>1.171</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>20</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="6">
         <v>19.5</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="6">
         <v>18.7</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="6">
         <v>19.2</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="27">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="10">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
         <v>1.042</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="8">
         <v>17</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="8">
         <v>16.7</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="8">
         <v>16.5</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="8">
         <v>16.399999999999999</v>
       </c>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="27">
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="10">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7">
         <v>1.161</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="8">
         <v>19.3</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="8">
         <v>19.3</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="8">
         <v>19</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="8">
         <v>19.399999999999999</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="27">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="7">
         <v>1.2549999999999999</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="8">
         <v>21.7</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="8">
         <v>22.2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="8">
         <v>22.7</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="8">
         <v>21.5</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="27">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="10">
+      <c r="B6" s="7">
         <v>1.18</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="8">
         <v>19</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="8">
         <v>20.2</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="8">
         <v>19</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="8">
         <v>19.5</v>
       </c>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="27">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
+      <c r="B7" s="7">
         <v>1.1719999999999999</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="8">
         <v>20</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="8">
         <v>20</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="8">
         <v>20.7</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="8">
         <v>20.5</v>
       </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="27">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>1.173</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="8">
         <v>21</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="8">
         <v>21.5</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="8">
         <v>22.5</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="8">
         <v>20.5</v>
       </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="27">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="10">
+      <c r="B9" s="7">
         <v>1.3939999999999999</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="8">
         <v>23</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="8">
         <v>23</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="8">
         <v>24</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="8">
         <v>23.2</v>
       </c>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="27">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="10">
+      <c r="B10" s="7">
         <v>1.387</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="8">
         <v>23</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="8">
         <v>23.2</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="8">
         <v>22.5</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="8">
         <v>23.7</v>
       </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="27">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="9">
         <v>1.32</v>
       </c>
-      <c r="C11" s="13">
+      <c r="C11" s="10">
         <v>22.7</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="10">
         <v>23.5</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="10">
         <v>22.2</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F11" s="10">
         <v>22.7</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="27">
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="18">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
-        <v>1</v>
-      </c>
-      <c r="B12" s="16">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="13">
         <v>1.266</v>
       </c>
-      <c r="C12" s="20">
+      <c r="C12" s="15">
         <v>20.96</v>
       </c>
-      <c r="D12" s="20">
+      <c r="D12" s="15">
         <v>22.02</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="15">
         <v>20.95</v>
       </c>
-      <c r="F12" s="20">
+      <c r="F12" s="15">
         <v>21.04</v>
       </c>
-      <c r="J12" s="27">
+      <c r="J12" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="14">
-        <v>2</v>
-      </c>
-      <c r="B13" s="16">
+      <c r="A13" s="11">
+        <v>2</v>
+      </c>
+      <c r="B13" s="13">
         <v>1.294</v>
       </c>
-      <c r="C13" s="20">
+      <c r="C13" s="15">
         <v>21.7</v>
       </c>
-      <c r="D13" s="20">
+      <c r="D13" s="15">
         <v>22.88</v>
       </c>
-      <c r="E13" s="20">
+      <c r="E13" s="15">
         <v>22.85</v>
       </c>
-      <c r="F13" s="20">
+      <c r="F13" s="15">
         <v>22.07</v>
       </c>
-      <c r="J13" s="27">
+      <c r="J13" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
-        <v>3</v>
-      </c>
-      <c r="B14" s="16">
+      <c r="A14" s="11">
+        <v>3</v>
+      </c>
+      <c r="B14" s="13">
         <v>1.264</v>
       </c>
-      <c r="C14" s="20">
+      <c r="C14" s="15">
         <v>22.5</v>
       </c>
-      <c r="D14" s="20">
+      <c r="D14" s="15">
         <v>22.54</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="15">
         <v>22.88</v>
       </c>
-      <c r="F14" s="20">
+      <c r="F14" s="15">
         <v>22.57</v>
       </c>
-      <c r="J14" s="27">
+      <c r="J14" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
+      <c r="A15" s="11">
         <v>4</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="13">
         <v>1.323</v>
       </c>
-      <c r="C15" s="20">
+      <c r="C15" s="15">
         <v>23.28</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="15">
         <v>21.25</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="15">
         <v>24.32</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="15">
         <v>21.31</v>
       </c>
-      <c r="J15" s="27">
+      <c r="J15" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
+      <c r="A16" s="11">
         <v>5</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="13">
         <v>1.252</v>
       </c>
-      <c r="C16" s="20">
+      <c r="C16" s="15">
         <v>22.5</v>
       </c>
-      <c r="D16" s="20">
+      <c r="D16" s="15">
         <v>22.61</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="15">
         <v>22.6</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="15">
         <v>21.91</v>
       </c>
-      <c r="J16" s="27">
+      <c r="J16" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="14">
+      <c r="A17" s="11">
         <v>6</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="13">
         <v>1.3680000000000001</v>
       </c>
-      <c r="C17" s="20">
+      <c r="C17" s="15">
         <v>24.32</v>
       </c>
-      <c r="D17" s="20">
+      <c r="D17" s="15">
         <v>24.5</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="15">
         <v>24.59</v>
       </c>
-      <c r="F17" s="20">
+      <c r="F17" s="15">
         <v>24.48</v>
       </c>
-      <c r="J17" s="27">
+      <c r="J17" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="14">
+      <c r="A18" s="11">
         <v>7</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="13">
         <v>1.254</v>
       </c>
-      <c r="C18" s="20">
+      <c r="C18" s="15">
         <v>21.71</v>
       </c>
-      <c r="D18" s="20">
+      <c r="D18" s="15">
         <v>21.49</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="15">
         <v>21.71</v>
       </c>
-      <c r="F18" s="20">
+      <c r="F18" s="15">
         <v>24.64</v>
       </c>
-      <c r="J18" s="27">
+      <c r="J18" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="14">
+      <c r="A19" s="11">
         <v>8</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="13">
         <v>1.2949999999999999</v>
       </c>
-      <c r="C19" s="20">
+      <c r="C19" s="15">
         <v>23.74</v>
       </c>
-      <c r="D19" s="20">
+      <c r="D19" s="15">
         <v>23.49</v>
       </c>
-      <c r="E19" s="20">
+      <c r="E19" s="15">
         <v>23.79</v>
       </c>
-      <c r="F19" s="20">
+      <c r="F19" s="15">
         <v>22.83</v>
       </c>
-      <c r="J19" s="27">
+      <c r="J19" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="14">
+      <c r="A20" s="11">
         <v>9</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="13">
         <v>1.3660000000000001</v>
       </c>
-      <c r="C20" s="20">
+      <c r="C20" s="15">
         <v>24.46</v>
       </c>
-      <c r="D20" s="20">
+      <c r="D20" s="15">
         <v>24.26</v>
       </c>
-      <c r="E20" s="20">
+      <c r="E20" s="15">
         <v>24.17</v>
       </c>
-      <c r="F20" s="20">
+      <c r="F20" s="15">
         <v>24.43</v>
       </c>
-      <c r="J20" s="27">
+      <c r="J20" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="15">
+      <c r="A21" s="12">
         <v>10</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <v>1.3660000000000001</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="16">
         <v>23.63</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="16">
         <v>23.84</v>
       </c>
-      <c r="E21" s="21">
+      <c r="E21" s="16">
         <v>23.63</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="17">
         <v>23.04</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="27">
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="18">
         <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="14">
-        <v>1</v>
-      </c>
-      <c r="B22" s="16">
+      <c r="A22" s="11">
+        <v>1</v>
+      </c>
+      <c r="B22" s="13">
         <v>1.256</v>
       </c>
-      <c r="C22" s="17">
+      <c r="C22" s="14">
         <v>21.7</v>
       </c>
-      <c r="D22" s="17">
+      <c r="D22" s="14">
         <v>21</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="14">
         <v>21.3</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F22" s="14">
         <v>22.1</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="14">
-        <v>2</v>
-      </c>
-      <c r="B23" s="16">
+      <c r="A23" s="11">
+        <v>2</v>
+      </c>
+      <c r="B23" s="13">
         <v>1.3620000000000001</v>
       </c>
-      <c r="C23" s="17">
+      <c r="C23" s="14">
         <v>23.6</v>
       </c>
-      <c r="D23" s="17">
+      <c r="D23" s="14">
         <v>23</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="14">
         <v>23.5</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F23" s="14">
         <v>23</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="14">
-        <v>3</v>
-      </c>
-      <c r="B24" s="16">
+      <c r="A24" s="11">
+        <v>3</v>
+      </c>
+      <c r="B24" s="13">
         <v>1.2210000000000001</v>
       </c>
-      <c r="C24" s="17">
+      <c r="C24" s="14">
         <v>22</v>
       </c>
-      <c r="D24" s="17">
+      <c r="D24" s="14">
         <v>20.9</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="14">
         <v>21</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F24" s="14">
         <v>22</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="14">
+      <c r="A25" s="11">
         <v>4</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="13">
         <v>1.2470000000000001</v>
       </c>
-      <c r="C25" s="17">
+      <c r="C25" s="14">
         <v>21</v>
       </c>
-      <c r="D25" s="17">
+      <c r="D25" s="14">
         <v>21.7</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="14">
         <v>21.4</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F25" s="14">
         <v>21.2</v>
       </c>
-      <c r="J25" s="27">
+      <c r="J25" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="14">
+      <c r="A26" s="11">
         <v>5</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="13">
         <v>1.234</v>
       </c>
-      <c r="C26" s="17">
+      <c r="C26" s="14">
         <v>21.3</v>
       </c>
-      <c r="D26" s="17">
+      <c r="D26" s="14">
         <v>21.2</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E26" s="14">
         <v>21.3</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F26" s="14">
         <v>21.2</v>
       </c>
-      <c r="J26" s="27">
+      <c r="J26" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="14">
+      <c r="A27" s="11">
         <v>6</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="13">
         <v>1.2450000000000001</v>
       </c>
-      <c r="C27" s="17">
+      <c r="C27" s="14">
         <v>21.3</v>
       </c>
-      <c r="D27" s="17">
+      <c r="D27" s="14">
         <v>22</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E27" s="14">
         <v>22.2</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F27" s="14">
         <v>21.6</v>
       </c>
-      <c r="J27" s="27">
+      <c r="J27" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="14">
+      <c r="A28" s="11">
         <v>7</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="13">
         <v>1.125</v>
       </c>
-      <c r="C28" s="17">
+      <c r="C28" s="14">
         <v>19.7</v>
       </c>
-      <c r="D28" s="17">
+      <c r="D28" s="14">
         <v>20.3</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E28" s="14">
         <v>19.399999999999999</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F28" s="14">
         <v>19.899999999999999</v>
       </c>
-      <c r="J28" s="27">
+      <c r="J28" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="14">
+      <c r="A29" s="11">
         <v>8</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="13">
         <v>1.2669999999999999</v>
       </c>
-      <c r="C29" s="17">
+      <c r="C29" s="14">
         <v>23</v>
       </c>
-      <c r="D29" s="17">
+      <c r="D29" s="14">
         <v>21.7</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E29" s="14">
         <v>22.8</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F29" s="14">
         <v>22.8</v>
       </c>
-      <c r="J29" s="27">
+      <c r="J29" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="14">
+      <c r="A30" s="11">
         <v>9</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="13">
         <v>1.2070000000000001</v>
       </c>
-      <c r="C30" s="17">
+      <c r="C30" s="14">
         <v>20.100000000000001</v>
       </c>
-      <c r="D30" s="17">
+      <c r="D30" s="14">
         <v>21.9</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E30" s="14">
         <v>20.9</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F30" s="14">
         <v>20.6</v>
       </c>
-      <c r="J30" s="27">
+      <c r="J30" s="18">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="15">
+      <c r="A31" s="12">
         <v>10</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="9">
         <v>1.23</v>
       </c>
-      <c r="C31" s="13">
+      <c r="C31" s="10">
         <v>20.3</v>
       </c>
-      <c r="D31" s="13">
+      <c r="D31" s="10">
         <v>20.9</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E31" s="10">
         <v>21</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F31" s="10">
         <v>20.2</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="27">
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="18">
         <v>1</v>
       </c>
     </row>
@@ -1264,8 +1252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1275,755 +1263,805 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="3"/>
-      <c r="L2" s="24">
+      <c r="A2" s="19">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20">
+        <v>1</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20">
+        <v>1</v>
+      </c>
+      <c r="G2" s="20">
+        <v>1</v>
+      </c>
+      <c r="H2" s="20">
+        <v>1</v>
+      </c>
+      <c r="I2" s="20">
+        <v>1</v>
+      </c>
+      <c r="J2" s="20">
+        <v>1</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="21">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="3"/>
-      <c r="L3" s="24"/>
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20">
+        <v>1</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20">
+        <v>1</v>
+      </c>
+      <c r="G3" s="20">
+        <v>1</v>
+      </c>
+      <c r="H3" s="20">
+        <v>1</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20">
+        <v>1</v>
+      </c>
+      <c r="K3" s="20"/>
+      <c r="L3" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="24"/>
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20">
+        <v>1</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20">
+        <v>1</v>
+      </c>
+      <c r="E4" s="20">
+        <v>1</v>
+      </c>
+      <c r="F4" s="20">
+        <v>1</v>
+      </c>
+      <c r="G4" s="20">
+        <v>1</v>
+      </c>
+      <c r="H4" s="20">
+        <v>1</v>
+      </c>
+      <c r="I4" s="20">
+        <v>1</v>
+      </c>
+      <c r="J4" s="20">
+        <v>1</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A5" s="2">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="3"/>
-      <c r="L5" s="24"/>
+      <c r="B5" s="20">
+        <v>1</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20">
+        <v>1</v>
+      </c>
+      <c r="G5" s="20">
+        <v>1</v>
+      </c>
+      <c r="H5" s="20">
+        <v>1</v>
+      </c>
+      <c r="I5" s="20">
+        <v>1</v>
+      </c>
+      <c r="J5" s="20">
+        <v>1</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A6" s="2">
+      <c r="A6" s="19">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="3"/>
-      <c r="L6" s="24"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20">
+        <v>1</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1</v>
+      </c>
+      <c r="G6" s="20">
+        <v>1</v>
+      </c>
+      <c r="H6" s="20">
+        <v>1</v>
+      </c>
+      <c r="I6" s="20">
+        <v>1</v>
+      </c>
+      <c r="J6" s="20">
+        <v>1</v>
+      </c>
+      <c r="K6" s="20"/>
+      <c r="L6" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A7" s="2">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="24"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20">
+        <v>1</v>
+      </c>
+      <c r="F7" s="20">
+        <v>1</v>
+      </c>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20">
+        <v>1</v>
+      </c>
+      <c r="I7" s="20">
+        <v>1</v>
+      </c>
+      <c r="J7" s="20">
+        <v>1</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="2">
+      <c r="A8" s="19">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="24"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20">
+        <v>1</v>
+      </c>
+      <c r="F8" s="20">
+        <v>1</v>
+      </c>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20">
+        <v>1</v>
+      </c>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20">
+        <v>1</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="2">
+      <c r="A9" s="19">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="24"/>
+      <c r="B9" s="20">
+        <v>1</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20">
+        <v>1</v>
+      </c>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20">
+        <v>1</v>
+      </c>
+      <c r="K9" s="20"/>
+      <c r="L9" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="2">
+      <c r="A10" s="19">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="24"/>
+      <c r="B10" s="20">
+        <v>1</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20">
+        <v>1</v>
+      </c>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20">
+        <v>1</v>
+      </c>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20">
+        <v>1</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="L10" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="25"/>
+      <c r="B11" s="22">
+        <v>1</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22">
+        <v>1</v>
+      </c>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22">
+        <v>1</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22">
+        <v>1</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A12" s="14">
-        <v>1</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" s="1"/>
-      <c r="L12" s="23">
+      <c r="A12" s="23">
+        <v>1</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24">
+        <v>1</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24">
+        <v>1</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24">
+        <v>1</v>
+      </c>
+      <c r="K12" s="24"/>
+      <c r="L12" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="14">
-        <v>2</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="26"/>
+      <c r="A13" s="23">
+        <v>2</v>
+      </c>
+      <c r="B13" s="26">
+        <v>1</v>
+      </c>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24">
+        <v>1</v>
+      </c>
+      <c r="G13" s="24">
+        <v>1</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="14">
-        <v>3</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" s="1"/>
-      <c r="L14" s="26"/>
+      <c r="A14" s="23">
+        <v>3</v>
+      </c>
+      <c r="B14" s="26">
+        <v>1</v>
+      </c>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24">
+        <v>1</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1</v>
+      </c>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24">
+        <v>1</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24">
+        <v>1</v>
+      </c>
+      <c r="K14" s="24"/>
+      <c r="L14" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="14">
+      <c r="A15" s="23">
         <v>4</v>
       </c>
-      <c r="B15" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" s="1"/>
-      <c r="L15" s="26"/>
+      <c r="B15" s="26">
+        <v>1</v>
+      </c>
+      <c r="C15" s="24">
+        <v>1</v>
+      </c>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24">
+        <v>1</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24">
+        <v>1</v>
+      </c>
+      <c r="K15" s="24"/>
+      <c r="L15" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A16" s="14">
+      <c r="A16" s="23">
         <v>5</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="26"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24">
+        <v>1</v>
+      </c>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24">
+        <v>1</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24">
+        <v>1</v>
+      </c>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A17" s="14">
+      <c r="A17" s="23">
         <v>6</v>
       </c>
-      <c r="B17" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="26"/>
+      <c r="B17" s="26">
+        <v>1</v>
+      </c>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24">
+        <v>1</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24">
+        <v>1</v>
+      </c>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A18" s="14">
+      <c r="A18" s="23">
         <v>7</v>
       </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="26"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24">
+        <v>1</v>
+      </c>
+      <c r="F18" s="24">
+        <v>1</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24">
+        <v>1</v>
+      </c>
+      <c r="K18" s="24"/>
+      <c r="L18" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A19" s="14">
+      <c r="A19" s="23">
         <v>8</v>
       </c>
-      <c r="B19" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" s="1"/>
-      <c r="L19" s="26"/>
+      <c r="B19" s="26">
+        <v>1</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24">
+        <v>1</v>
+      </c>
+      <c r="F19" s="24">
+        <v>1</v>
+      </c>
+      <c r="G19" s="24">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24">
+        <v>1</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24">
+        <v>1</v>
+      </c>
+      <c r="K19" s="24"/>
+      <c r="L19" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A20" s="14">
+      <c r="A20" s="23">
         <v>9</v>
       </c>
-      <c r="B20" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="26"/>
+      <c r="B20" s="26">
+        <v>1</v>
+      </c>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24">
+        <v>1</v>
+      </c>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24">
+        <v>1</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="15">
+      <c r="A21" s="27">
         <v>10</v>
       </c>
-      <c r="B21" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" s="5"/>
-      <c r="L21" s="25"/>
+      <c r="B21" s="28">
+        <v>1</v>
+      </c>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22">
+        <v>1</v>
+      </c>
+      <c r="F21" s="22">
+        <v>1</v>
+      </c>
+      <c r="G21" s="22">
+        <v>1</v>
+      </c>
+      <c r="H21" s="22">
+        <v>1</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22">
+        <v>1</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="L21" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="14">
-        <v>1</v>
-      </c>
-      <c r="B22" s="18"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L22" s="23">
+      <c r="A22" s="23">
+        <v>1</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="26">
+        <v>1</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="26">
+        <v>1</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24">
+        <v>1</v>
+      </c>
+      <c r="L22" s="25">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A23" s="14">
-        <v>2</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L23" s="26"/>
+      <c r="A23" s="23">
+        <v>2</v>
+      </c>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24">
+        <v>1</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24">
+        <v>1</v>
+      </c>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24">
+        <v>1</v>
+      </c>
+      <c r="L23" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A24" s="14">
-        <v>3</v>
-      </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="26"/>
+      <c r="A24" s="23">
+        <v>3</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="24">
+        <v>1</v>
+      </c>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="26">
+        <v>1</v>
+      </c>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A25" s="14">
+      <c r="A25" s="23">
         <v>4</v>
       </c>
-      <c r="B25" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="26"/>
+      <c r="B25" s="26">
+        <v>1</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A26" s="14">
+      <c r="A26" s="23">
         <v>5</v>
       </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L26" s="26"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="26">
+        <v>1</v>
+      </c>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24">
+        <v>1</v>
+      </c>
+      <c r="L26" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A27" s="14">
+      <c r="A27" s="23">
         <v>6</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="26"/>
+      <c r="B27" s="24">
+        <v>1</v>
+      </c>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A28" s="14">
+      <c r="A28" s="23">
         <v>7</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="26"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24">
+        <v>1</v>
+      </c>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="14">
+      <c r="A29" s="23">
         <v>8</v>
       </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="26"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24">
+        <v>1</v>
+      </c>
+      <c r="D29" s="24">
+        <v>1</v>
+      </c>
+      <c r="E29" s="24">
+        <v>1</v>
+      </c>
+      <c r="F29" s="24">
+        <v>1</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="14">
+      <c r="A30" s="23">
         <v>9</v>
       </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="26"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24">
+        <v>1</v>
+      </c>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="25">
+        <v>1</v>
+      </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A31" s="15">
+      <c r="A31" s="27">
         <v>10</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="25"/>
+      <c r="B31" s="22">
+        <v>1</v>
+      </c>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22">
+        <v>1</v>
+      </c>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="25">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="L2:L11"/>
-    <mergeCell ref="L12:L21"/>
-    <mergeCell ref="L22:L31"/>
-  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>